--- a/manuscript/v2.0/Table1_Assembly_Reads.xlsx
+++ b/manuscript/v2.0/Table1_Assembly_Reads.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\Dresequencing\Dreseq_github\manuscript\firstDraft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\corrinne\D_Cottons_USDA\manuscript\v2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>G. harknessii</t>
   </si>
   <si>
-    <t>G. turnerii</t>
-  </si>
-  <si>
     <t>Erioxylum</t>
   </si>
   <si>
@@ -173,10 +170,13 @@
     <t>---</t>
   </si>
   <si>
-    <t>Assembly E-size*</t>
-  </si>
-  <si>
-    <t>* E-size is an alternative assembly statistic implemented by the Genome Assembly Gold-standard Evaluations (GAGE) study to evaluate the completeness of the assembled gene space by considering the expected contig size for a randomly selected base.</t>
+    <t>G. turneri</t>
+  </si>
+  <si>
+    <t>Table 1: Number of reads per species/accession and assembly size. E-size is an alternative assembly statistic implemented by the Genome Assembly Gold-standard Evaluations (GAGE) study to evaluate the completeness of the assembled gene space by considering the expected contig size for a randomly selected base.</t>
+  </si>
+  <si>
+    <t>Assembly E-size</t>
   </si>
 </sst>
 </file>
@@ -257,8 +257,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,7 +544,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:H25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,56 +559,42 @@
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2">
-        <v>209266292</v>
-      </c>
-      <c r="E2" s="1">
-        <v>47.560520909099999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>125455638</v>
-      </c>
-      <c r="G2" s="1">
-        <v>28.512644999999999</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2718</v>
+      <c r="H2" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -619,48 +605,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2">
-        <v>150875945</v>
+        <v>209266292</v>
       </c>
       <c r="E3" s="1">
-        <v>34.289987500000002</v>
+        <v>47.560520909099999</v>
       </c>
       <c r="F3" s="2">
-        <v>91746782</v>
+        <v>125455638</v>
       </c>
       <c r="G3" s="1">
-        <v>20.851541363599999</v>
+        <v>28.512644999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>1587</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2">
-        <v>155005858</v>
+        <v>150875945</v>
       </c>
       <c r="E4" s="1">
-        <v>36.216321962599999</v>
+        <v>34.289987500000002</v>
       </c>
       <c r="F4" s="2">
-        <v>130884124</v>
+        <v>91746782</v>
       </c>
       <c r="G4" s="1">
-        <v>30.5804028037</v>
+        <v>20.851541363599999</v>
       </c>
       <c r="H4" s="2">
-        <v>3891</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -668,25 +654,25 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>183115691</v>
+        <v>155005858</v>
       </c>
       <c r="E5" s="1">
-        <v>42.784039953300002</v>
+        <v>36.216321962599999</v>
       </c>
       <c r="F5" s="2">
-        <v>150576667</v>
+        <v>130884124</v>
       </c>
       <c r="G5" s="1">
-        <v>35.181464252300003</v>
+        <v>30.5804028037</v>
       </c>
       <c r="H5" s="2">
-        <v>5724</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,25 +680,25 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="2">
-        <v>136351407</v>
+        <v>183115691</v>
       </c>
       <c r="E6" s="1">
-        <v>44.951013296699998</v>
+        <v>42.784039953300002</v>
       </c>
       <c r="F6" s="2">
-        <v>126215258</v>
+        <v>150576667</v>
       </c>
       <c r="G6" s="1">
-        <v>41.609425714300002</v>
+        <v>35.181464252300003</v>
       </c>
       <c r="H6" s="2">
-        <v>29772</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -720,25 +706,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>197515336</v>
+        <v>136351407</v>
       </c>
       <c r="E7" s="1">
-        <v>65.114945934100007</v>
+        <v>44.951013296699998</v>
       </c>
       <c r="F7" s="2">
-        <v>187920299</v>
+        <v>126215258</v>
       </c>
       <c r="G7" s="1">
-        <v>61.951746923100004</v>
+        <v>41.609425714300002</v>
       </c>
       <c r="H7" s="2">
-        <v>45201</v>
+        <v>29772</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -746,428 +732,442 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2">
-        <v>124131681</v>
+        <v>197515336</v>
       </c>
       <c r="E8" s="1">
-        <v>40.922532197800003</v>
+        <v>65.114945934100007</v>
       </c>
       <c r="F8" s="2">
-        <v>114788764</v>
+        <v>187920299</v>
       </c>
       <c r="G8" s="1">
-        <v>37.842449670299999</v>
+        <v>61.951746923100004</v>
       </c>
       <c r="H8" s="2">
-        <v>33468</v>
+        <v>45201</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>169506661</v>
+        <v>124131681</v>
       </c>
       <c r="E9" s="1">
-        <v>36.889371273099997</v>
+        <v>40.922532197800003</v>
       </c>
       <c r="F9" s="2">
-        <v>139275121</v>
+        <v>114788764</v>
       </c>
       <c r="G9" s="1">
-        <v>30.3101460283</v>
+        <v>37.842449670299999</v>
       </c>
       <c r="H9" s="2">
-        <v>4778</v>
+        <v>33468</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
-        <v>158194517</v>
+        <v>169506661</v>
       </c>
       <c r="E10" s="1">
-        <v>34.427533623499997</v>
+        <v>36.889371273099997</v>
       </c>
       <c r="F10" s="2">
-        <v>134374429</v>
+        <v>139275121</v>
       </c>
       <c r="G10" s="1">
-        <v>29.243618933600001</v>
+        <v>30.3101460283</v>
       </c>
       <c r="H10" s="2">
-        <v>5255</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
-        <v>173890886</v>
+        <v>158194517</v>
       </c>
       <c r="E11" s="1">
-        <v>41.353361712199998</v>
+        <v>34.427533623499997</v>
       </c>
       <c r="F11" s="2">
-        <v>143417911</v>
+        <v>134374429</v>
       </c>
       <c r="G11" s="1">
-        <v>34.106518668299998</v>
+        <v>29.243618933600001</v>
       </c>
       <c r="H11" s="2">
-        <v>4940</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
-        <v>169232618</v>
+        <v>173890886</v>
       </c>
       <c r="E12" s="1">
-        <v>36.238247965699998</v>
+        <v>41.353361712199998</v>
       </c>
       <c r="F12" s="2">
-        <v>143485641</v>
+        <v>143417911</v>
       </c>
       <c r="G12" s="1">
-        <v>30.724976659500001</v>
+        <v>34.106518668299998</v>
       </c>
       <c r="H12" s="2">
-        <v>3267</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
-        <v>189688054</v>
+        <v>169232618</v>
       </c>
       <c r="E13" s="1">
-        <v>40.618426980700001</v>
+        <v>36.238247965699998</v>
       </c>
       <c r="F13" s="2">
-        <v>166155995</v>
+        <v>143485641</v>
       </c>
       <c r="G13" s="1">
-        <v>35.579442184199998</v>
+        <v>30.724976659500001</v>
       </c>
       <c r="H13" s="2">
-        <v>5530</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
-        <v>303290420</v>
+        <v>189688054</v>
       </c>
       <c r="E14" s="1">
-        <v>65.293954790100003</v>
+        <v>40.618426980700001</v>
       </c>
       <c r="F14" s="2">
-        <v>260234325</v>
+        <v>166155995</v>
       </c>
       <c r="G14" s="1">
-        <v>56.024612486499997</v>
+        <v>35.579442184199998</v>
       </c>
       <c r="H14" s="2">
-        <v>10495</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
-        <v>145820029</v>
+        <v>303290420</v>
       </c>
       <c r="E15" s="1">
-        <v>34.677771462499997</v>
+        <v>65.293954790100003</v>
       </c>
       <c r="F15" s="2">
-        <v>67245582</v>
+        <v>260234325</v>
       </c>
       <c r="G15" s="1">
-        <v>15.991814982199999</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>48</v>
+        <v>56.024612486499997</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10495</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2">
-        <v>181003659</v>
+        <v>145820029</v>
       </c>
       <c r="E16" s="1">
-        <v>43.044865398299997</v>
+        <v>34.677771462499997</v>
       </c>
       <c r="F16" s="2">
-        <v>157481159</v>
+        <v>67245582</v>
       </c>
       <c r="G16" s="1">
-        <v>37.450929607600003</v>
-      </c>
-      <c r="H16" s="2">
-        <v>9074</v>
+        <v>15.991814982199999</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
-        <v>155793983</v>
+        <v>181003659</v>
       </c>
       <c r="E17" s="1">
-        <v>36.614332079900002</v>
+        <v>43.044865398299997</v>
       </c>
       <c r="F17" s="2">
-        <v>130561611</v>
+        <v>157481159</v>
       </c>
       <c r="G17" s="1">
-        <v>30.684279906</v>
+        <v>37.450929607600003</v>
       </c>
       <c r="H17" s="2">
-        <v>9368</v>
+        <v>9074</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
-        <v>94579207</v>
+        <v>155793983</v>
       </c>
       <c r="E18" s="1">
-        <v>22.227780728599999</v>
+        <v>36.614332079900002</v>
       </c>
       <c r="F18" s="2">
-        <v>81335215</v>
+        <v>130561611</v>
       </c>
       <c r="G18" s="1">
-        <v>19.115209165700001</v>
+        <v>30.684279906</v>
       </c>
       <c r="H18" s="2">
-        <v>1765</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
-        <v>166777486</v>
+        <v>94579207</v>
       </c>
       <c r="E19" s="1">
-        <v>36.654392527500001</v>
+        <v>22.227780728599999</v>
       </c>
       <c r="F19" s="2">
-        <v>143853161</v>
+        <v>81335215</v>
       </c>
       <c r="G19" s="1">
-        <v>31.616079340700001</v>
+        <v>19.115209165700001</v>
       </c>
       <c r="H19" s="2">
-        <v>10350</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2">
-        <v>166667596</v>
+        <v>166777486</v>
       </c>
       <c r="E20" s="1">
-        <v>37.878999090900002</v>
+        <v>36.654392527500001</v>
       </c>
       <c r="F20" s="2">
-        <v>135720623</v>
+        <v>143853161</v>
       </c>
       <c r="G20" s="1">
-        <v>30.845596136400001</v>
+        <v>31.616079340700001</v>
       </c>
       <c r="H20" s="2">
-        <v>5467</v>
+        <v>10350</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2">
-        <v>161773353</v>
+        <v>166667596</v>
       </c>
       <c r="E21" s="1">
-        <v>36.766671136399999</v>
+        <v>37.878999090900002</v>
       </c>
       <c r="F21" s="2">
-        <v>139262455</v>
+        <v>135720623</v>
       </c>
       <c r="G21" s="1">
-        <v>31.650557954500002</v>
+        <v>30.845596136400001</v>
       </c>
       <c r="H21" s="2">
-        <v>7051</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2">
-        <v>165907958</v>
+        <v>161773353</v>
       </c>
       <c r="E22" s="1">
-        <v>39.454924613599999</v>
+        <v>36.766671136399999</v>
       </c>
       <c r="F22" s="2">
-        <v>142939108</v>
+        <v>139262455</v>
       </c>
       <c r="G22" s="1">
-        <v>33.992653507699998</v>
+        <v>31.650557954500002</v>
       </c>
       <c r="H22" s="2">
-        <v>7621</v>
+        <v>7051</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2">
+        <v>165907958</v>
+      </c>
+      <c r="E23" s="1">
+        <v>39.454924613599999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>142939108</v>
+      </c>
+      <c r="G23" s="1">
+        <v>33.992653507699998</v>
+      </c>
+      <c r="H23" s="2">
+        <v>7621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2">
         <v>167999537</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>39.952327467300002</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <v>98890166</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G24" s="1">
         <v>23.517280856100001</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <v>1918</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
@@ -1183,7 +1183,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
